--- a/Llistat_Tim_Hortons_Extintors_31052022.xlsx
+++ b/Llistat_Tim_Hortons_Extintors_31052022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Andreu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B38687-144A-4364-B3D7-8D83FCF135E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C4DD5-7255-409D-87AA-39C2BDDB60FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1290" windowWidth="15030" windowHeight="11655" xr2:uid="{B5E3DD3E-90B2-4162-8391-D9E47FBED2E4}"/>
+    <workbookView xWindow="8955" yWindow="990" windowWidth="10245" windowHeight="14370" xr2:uid="{B5E3DD3E-90B2-4162-8391-D9E47FBED2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>#CODE</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>aprox</t>
+  </si>
+  <si>
+    <t>Protecnus</t>
   </si>
 </sst>
 </file>
@@ -633,15 +636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E73DF-3AE4-4857-AE33-8A14F83C893B}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +666,11 @@
       <c r="G1" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>806803</v>
       </c>
@@ -687,7 +693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>807794</v>
       </c>
@@ -710,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>807800</v>
       </c>
@@ -733,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>801093</v>
       </c>
@@ -756,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
@@ -764,7 +770,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
@@ -772,7 +778,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -780,7 +786,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
@@ -788,7 +794,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -796,7 +802,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -804,7 +810,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
@@ -812,7 +818,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
@@ -820,7 +826,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
@@ -828,7 +834,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
@@ -836,7 +842,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
